--- a/data/trans_dic/P16A02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,39%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>5,66; 10,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>8,99; 15,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>8,83; 15,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>6,18; 16,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>14,0; 20,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>18,69; 26,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>13,87; 20,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>14,83; 27,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>10,65; 14,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>14,54; 19,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>12,23; 17,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>11,71; 19,63</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,48%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>6,8; 10,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>12,26; 17,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>13,79; 19,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>13,47; 23,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>11,76; 17,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>20,68; 28,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>19,85; 26,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>16,37; 24,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>9,84; 13,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>17,18; 21,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>17,73; 22,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>16,35; 22,96</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,48%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>10,95; 16,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>12,15; 17,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>14,47; 20,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>14,98; 22,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>17,74; 23,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>27,3; 34,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>20,65; 27,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>26,92; 33,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>15,0; 19,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>20,59; 25,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>18,5; 22,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>22,18; 27,2</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,83%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>11,91; 18,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>13,75; 19,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>16,31; 22,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>17,66; 27,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>20,31; 27,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>27,78; 36,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>25,19; 32,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>34,66; 41,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>16,95; 21,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>21,73; 26,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>22,12; 26,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>27,61; 33,7</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,9%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,14%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,4%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,36%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,26%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,21%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,09%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>18,16; 26,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>18,43; 26,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>19,1; 26,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>26,5; 33,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>24,12; 33,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>31,38; 40,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>34,94; 44,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>41,3; 47,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>22,48; 28,48</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>26,23; 32,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>28,37; 34,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>34,68; 39,4</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,43%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,66%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,63%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>17,82; 24,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>24,92; 32,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>21,2; 27,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>29,74; 35,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>33,76; 41,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>45,94; 53,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>42,42; 50,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>59,39; 74,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>27,48; 32,78</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>37,78; 43,49</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>33,97; 39,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>47,81; 61,82</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,81%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>12,79; 15,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,42; 19,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,53; 20,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>21,95; 25,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>22,27; 25,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>31,8; 35,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>29,64; 32,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>38,59; 46,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>17,95; 19,93</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>24,74; 26,97</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>24,12; 26,16</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>31,23; 36,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>15,31%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,18; 16,71</t>
+          <t>6,35; 18,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,83; 27,1</t>
+          <t>14,69; 27,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,71; 19,63</t>
+          <t>11,81; 19,75</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>19,04%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,47; 23,58</t>
+          <t>14,22; 24,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,37; 24,74</t>
+          <t>12,5; 23,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,35; 22,96</t>
+          <t>14,42; 22,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>24,87%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,98; 22,05</t>
+          <t>15,45; 22,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,92; 33,73</t>
+          <t>27,4; 34,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,18; 27,2</t>
+          <t>22,64; 27,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>26,6%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,66; 27,37</t>
+          <t>8,05; 26,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,66; 41,21</t>
+          <t>30,86; 40,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,61; 33,7</t>
+          <t>17,03; 32,48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>44,43%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>37,26%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,5; 33,54</t>
+          <t>26,83; 33,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>41,3; 47,42</t>
+          <t>41,31; 47,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>34,68; 39,4</t>
+          <t>34,83; 39,63</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>36,98%</t>
+          <t>32,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>49,59%</t>
+          <t>45,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>46,17%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>68,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>36,87%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>51,63%</t>
+          <t>53,15%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,82; 24,18</t>
+          <t>12,69; 21,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,92; 32,95</t>
+          <t>21,86; 32,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,2; 27,79</t>
+          <t>13,77; 22,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29,74; 35,61</t>
+          <t>24,22; 31,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,76; 41,13</t>
+          <t>28,17; 37,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,94; 53,41</t>
+          <t>40,24; 50,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>42,42; 50,17</t>
+          <t>37,63; 48,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>59,39; 74,15</t>
+          <t>51,68; 88,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,48; 32,78</t>
+          <t>21,86; 28,42</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>37,78; 43,49</t>
+          <t>33,27; 40,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>33,97; 39,22</t>
+          <t>27,78; 34,85</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>47,81; 61,82</t>
+          <t>39,95; 78,6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>32,32%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>40,14%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>41,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>53,07%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>49,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>67,08%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>44,55%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>56,32%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>20,49; 32,19</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>25,61; 37,99</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26,71; 37,58</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>35,13; 44,81</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>36,15; 47,18</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>47,98; 57,93</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>43,58; 55,24</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>63,63; 70,22</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>31,61; 40,47</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>40,48; 48,75</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>38,77; 46,74</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>53,76; 59,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13,92%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18,87%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22,45%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>23,87%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>33,48%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>31,1%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>41,94%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18,97%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>25,82%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>25,12%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>32,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>12,79; 15,17</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>16,42; 19,32</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>17,53; 20,27</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>21,95; 25,5</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17,97; 24,95</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>22,27; 25,25</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>31,8; 35,11</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>29,64; 32,77</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>38,59; 46,86</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>37,58; 52,28</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>17,95; 19,93</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>24,74; 26,97</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>24,12; 26,16</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>31,23; 36,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>29,28; 39,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 10,28</t>
+          <t>5,6; 10,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,99; 15,42</t>
+          <t>8,9; 15,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,83; 15,81</t>
+          <t>8,9; 15,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 18,02</t>
+          <t>6,7; 18,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,0; 20,62</t>
+          <t>14,28; 21,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,69; 26,63</t>
+          <t>18,73; 26,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,87; 20,87</t>
+          <t>13,99; 21,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,69; 27,06</t>
+          <t>13,99; 26,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 14,74</t>
+          <t>10,38; 14,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,54; 19,86</t>
+          <t>14,45; 19,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,22</t>
+          <t>12,17; 17,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 19,75</t>
+          <t>11,51; 20,11</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,8; 10,81</t>
+          <t>6,91; 11,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,26; 17,61</t>
+          <t>11,83; 17,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,79; 19,99</t>
+          <t>13,6; 19,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,22; 24,72</t>
+          <t>14,71; 24,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,76; 17,8</t>
+          <t>12,29; 17,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 28,0</t>
+          <t>20,85; 27,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,85; 26,85</t>
+          <t>19,9; 26,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,5; 23,92</t>
+          <t>11,52; 23,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,84; 13,38</t>
+          <t>9,73; 13,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,18; 21,8</t>
+          <t>17,1; 21,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,73; 22,4</t>
+          <t>17,83; 22,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,42; 22,85</t>
+          <t>14,5; 22,3</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,95; 16,61</t>
+          <t>11,01; 16,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,15; 17,55</t>
+          <t>12,15; 17,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,47; 20,42</t>
+          <t>14,58; 20,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,45; 22,7</t>
+          <t>15,34; 22,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 23,72</t>
+          <t>17,51; 23,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,3; 34,59</t>
+          <t>27,27; 34,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,65; 27,23</t>
+          <t>20,73; 27,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,4; 34,24</t>
+          <t>27,66; 34,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,0; 19,28</t>
+          <t>15,26; 19,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,59; 25,26</t>
+          <t>20,6; 25,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,5; 22,89</t>
+          <t>18,24; 22,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,64; 27,73</t>
+          <t>22,48; 27,54</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,91; 18,41</t>
+          <t>12,28; 18,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,75; 19,72</t>
+          <t>13,49; 19,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,31; 22,94</t>
+          <t>16,5; 23,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 26,46</t>
+          <t>7,86; 26,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,31; 27,71</t>
+          <t>20,15; 27,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,78; 36,12</t>
+          <t>28,16; 35,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,19; 32,98</t>
+          <t>25,61; 33,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,86; 40,45</t>
+          <t>30,94; 40,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,95; 21,79</t>
+          <t>16,78; 21,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,73; 26,76</t>
+          <t>21,82; 26,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,12; 26,9</t>
+          <t>21,97; 26,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 32,48</t>
+          <t>16,1; 32,38</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,16; 26,75</t>
+          <t>18,03; 26,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,43; 26,97</t>
+          <t>18,0; 26,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,1; 26,7</t>
+          <t>18,95; 27,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,83; 33,92</t>
+          <t>26,48; 33,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,12; 33,22</t>
+          <t>24,58; 34,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,38; 40,92</t>
+          <t>30,68; 40,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,94; 44,22</t>
+          <t>35,1; 44,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>41,31; 47,54</t>
+          <t>41,47; 47,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,48; 28,48</t>
+          <t>22,48; 28,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,23; 32,41</t>
+          <t>26,01; 32,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,37; 34,07</t>
+          <t>27,94; 34,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>34,83; 39,63</t>
+          <t>34,94; 39,68</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,69; 21,43</t>
+          <t>12,6; 21,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,86; 32,1</t>
+          <t>21,42; 32,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,77; 22,55</t>
+          <t>13,98; 22,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,22; 31,46</t>
+          <t>23,5; 30,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,17; 37,38</t>
+          <t>27,92; 37,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>40,24; 50,56</t>
+          <t>40,19; 51,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,63; 48,06</t>
+          <t>38,48; 48,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>51,68; 88,6</t>
+          <t>51,76; 86,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,86; 28,42</t>
+          <t>22,12; 28,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>33,27; 40,72</t>
+          <t>33,21; 40,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>27,78; 34,85</t>
+          <t>27,77; 34,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>39,95; 78,6</t>
+          <t>39,7; 74,44</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,49; 32,19</t>
+          <t>20,91; 32,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>25,61; 37,99</t>
+          <t>25,5; 38,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,71; 37,58</t>
+          <t>27,15; 38,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>35,13; 44,81</t>
+          <t>35,17; 44,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,15; 47,18</t>
+          <t>35,89; 47,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,98; 57,93</t>
+          <t>47,78; 58,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>43,58; 55,24</t>
+          <t>43,75; 54,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>63,63; 70,22</t>
+          <t>63,7; 70,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>31,61; 40,47</t>
+          <t>31,54; 40,32</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>40,48; 48,75</t>
+          <t>40,77; 48,9</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>38,77; 46,74</t>
+          <t>38,36; 46,72</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>53,76; 59,28</t>
+          <t>53,2; 58,92</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,79; 15,17</t>
+          <t>12,8; 15,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,42; 19,32</t>
+          <t>16,55; 19,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,53; 20,27</t>
+          <t>17,67; 20,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,97; 24,95</t>
+          <t>17,4; 24,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,27; 25,25</t>
+          <t>22,52; 25,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,8; 35,11</t>
+          <t>31,8; 35,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,64; 32,77</t>
+          <t>29,45; 32,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>37,58; 52,28</t>
+          <t>37,91; 53,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,95; 19,93</t>
+          <t>18,03; 19,95</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>24,74; 26,97</t>
+          <t>24,79; 26,98</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>24,12; 26,16</t>
+          <t>24,02; 26,25</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>29,28; 39,3</t>
+          <t>29,14; 39,03</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>38123</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>54142</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>49669</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>46435</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>81198</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>96596</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>68631</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>62773</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>119321</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>150738</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>118300</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>109208</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27683; 53197</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>40329; 69179</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>37317; 64114</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>26784; 73481</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>66735; 98962</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>80414; 113612</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>55358; 84793</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>43814; 82113</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>99829; 139291</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>127552; 174286</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>99234; 141251</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>82105; 143410</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>64294</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>101189</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>98400</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>80559</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>92913</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>148860</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>131998</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>97484</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>157206</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>250049</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>230397</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>178043</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>50805; 81388</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>81206; 119861</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>80315; 116711</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>62287; 104568</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>76886; 112128</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>127024; 169923</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>112137; 150376</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>58940; 122604</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>132464; 179767</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>221565; 281206</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>205769; 258991</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>135590; 208501</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>86513</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>99277</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>115875</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>101343</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>141949</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>217722</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>157370</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>166970</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>228462</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>316999</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>273245</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>268313</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>70174; 104176</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>82617; 121635</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>97575; 135648</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>82264; 121180</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>120785; 165259</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>193248; 243902</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>137080; 180297</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>150026; 185725</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>202527; 255735</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>286107; 350854</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>242736; 302186</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>242517; 297122</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>77338</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>101619</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>125197</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>163677</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>123284</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>196048</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>189398</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>262044</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>200622</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>297667</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>314595</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>425721</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>63736; 96037</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>82942; 120095</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>106614; 148798</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>69818; 234218</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>103888; 141360</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>172936; 220111</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>166228; 217782</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>220578; 288361</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>173606; 227048</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>268054; 328582</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>284553; 348988</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>257758; 518345</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>85620</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>94547</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>108503</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>170006</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>117002</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>161843</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>195756</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>242091</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>202621</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>256389</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>304259</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>412097</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>69724; 102752</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>77121; 113043</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>90548; 130350</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>148593; 188776</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>99302; 137388</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>137394; 181606</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>174380; 220896</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>225941; 259087</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>177720; 226727</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>227855; 283474</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>272318; 335833</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>386485; 438940</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>48568</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>82709</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>59739</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>101263</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>110958</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>162023</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>162679</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>417722</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>159525</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>244732</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>222418</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>518985</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>36865; 62047</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>66366; 101423</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>46753; 74848</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>86530; 113533</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>95747; 127994</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>142280; 182784</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>145375; 183840</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>314878; 525280</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>140575; 180124</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>220411; 269923</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>197737; 249056</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>387720; 726977</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>55339</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>77900</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>83063</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>113511</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>139314</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>205879</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>196525</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>285297</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>194653</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>283779</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>279587</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>398808</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>43878; 68550</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>63515; 95346</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>69773; 97681</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>99438; 125997</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>119824; 157708</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>185340; 226140</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>175077; 219497</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>270896; 298727</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>171521; 219262</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>259704; 311477</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>252104; 307036</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>376715; 417173</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1099</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2312</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1247</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1667</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1625</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3196</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>455794</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>611383</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>640445</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>776794</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>806617</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1188971</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1102356</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1534383</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1262411</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1800354</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1742802</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2311177</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>419332; 499643</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>566113; 658389</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>599790; 685922</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>602104; 855818</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>760960; 859025</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1129279; 1248204</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1043727; 1156043</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1387080; 1944977</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1199751; 1327515</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1728497; 1880953</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1666980; 1821371</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2074461; 2778298</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>